--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-616991.544805626</v>
+        <v>-619708.556022509</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13383639.1942981</v>
+        <v>13393724.96460296</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
-        <v>64.7807249792516</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>78.48831748481383</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666367</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>173.9484321805923</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>42.44107039008342</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>104.4113014270368</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.2159462544349</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.22660446706389</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>22.354395233232</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>138.9226877533237</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>93.02415644731799</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>60.01565927588008</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904884</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>43.49079940888635</v>
+        <v>31.6688608772143</v>
       </c>
       <c r="S6" t="n">
-        <v>67.13864800317316</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5306922801482</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.2048997906436</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923923</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>264.1551272753586</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>89.07251233813636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>339.1212762011679</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>202.9200853246955</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2.897807773916863</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>186.8101635945735</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.4009733337678</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>228.1884389789227</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>410.4130485258811</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>289.39827475457</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>28.33759486747713</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>201.6912360136721</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9544777886962</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.94641251876</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.7273029082527</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>86.96832235308715</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.446582186756046</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>123.0881387803871</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>189.6195493075132</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.769262722096</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.49057443311948</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.7925565474729</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>18.09021744528537</v>
       </c>
       <c r="U13" t="n">
-        <v>158.6802269624884</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>38.19083539427035</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>126.6321535627856</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892458</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>143.1086912616888</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>195.2208281702714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>128.1306638699257</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>140.307475200959</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>210.340261657467</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.3764982651491</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.55695577161193</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>28.87857325623944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>26.05480806223585</v>
+        <v>158.7974735697945</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097418</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="C2" t="n">
-        <v>293.4024563932567</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="D2" t="n">
-        <v>227.9673806566389</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="E2" t="n">
-        <v>227.9673806566389</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>221.0218799074354</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678515</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058987</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985595</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426227</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>672.242026426227</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="T2" t="n">
-        <v>672.242026426227</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097418</v>
+        <v>400.3029543659136</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097418</v>
+        <v>400.3029543659136</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097418</v>
+        <v>400.3029543659136</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097418</v>
+        <v>400.3029543659136</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097418</v>
+        <v>224.5974673148103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323109</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="C3" t="n">
-        <v>371.2627786323109</v>
+        <v>517.8127955780042</v>
       </c>
       <c r="D3" t="n">
-        <v>222.3283689710597</v>
+        <v>517.8127955780042</v>
       </c>
       <c r="E3" t="n">
-        <v>222.3283689710597</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="F3" t="n">
-        <v>222.3283689710597</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336488</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140251</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.500058754661</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476359</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017076</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487961</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U3" t="n">
-        <v>371.2627786323109</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323109</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323109</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323109</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323109</v>
+        <v>560.6825636487955</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623019</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170745</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396374</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.532428279088</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.532428279088</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="D5" t="n">
-        <v>844.266729672338</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E5" t="n">
-        <v>458.4784770740937</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F5" t="n">
-        <v>47.49257228448612</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G5" t="n">
-        <v>35.14246676219935</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14246676219935</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>35.14246676219935</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>114.3791390966223</v>
+        <v>152.5078184301898</v>
       </c>
       <c r="K5" t="n">
-        <v>283.8728891835379</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>531.0466356869056</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
-        <v>837.7444913982594</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1154.018847436592</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
-        <v>1439.33249211129</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>1648.340086017727</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>1757.123338109968</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>1734.543140904683</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>1594.217193679104</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>1594.217193679104</v>
+        <v>2074.496032513423</v>
       </c>
       <c r="U5" t="n">
-        <v>1594.217193679104</v>
+        <v>2074.496032513423</v>
       </c>
       <c r="V5" t="n">
-        <v>1263.154306335533</v>
+        <v>2074.496032513423</v>
       </c>
       <c r="W5" t="n">
-        <v>1202.532428279088</v>
+        <v>1721.727377243309</v>
       </c>
       <c r="X5" t="n">
-        <v>1202.532428279088</v>
+        <v>1721.727377243309</v>
       </c>
       <c r="Y5" t="n">
-        <v>1202.532428279088</v>
+        <v>1721.727377243309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340.9144797407699</v>
+        <v>671.6177418305251</v>
       </c>
       <c r="C6" t="n">
-        <v>340.9144797407699</v>
+        <v>671.6177418305251</v>
       </c>
       <c r="D6" t="n">
-        <v>340.9144797407699</v>
+        <v>522.6833321692739</v>
       </c>
       <c r="E6" t="n">
-        <v>181.6770247353144</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F6" t="n">
-        <v>35.14246676219935</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G6" t="n">
-        <v>35.14246676219935</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H6" t="n">
-        <v>35.14246676219935</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>35.14246676219935</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>63.51743902204089</v>
+        <v>89.55356510562319</v>
       </c>
       <c r="K6" t="n">
-        <v>190.1696108381212</v>
+        <v>246.644831850452</v>
       </c>
       <c r="L6" t="n">
-        <v>406.7916268487784</v>
+        <v>504.1959674104396</v>
       </c>
       <c r="M6" t="n">
-        <v>678.9361703050706</v>
+        <v>824.1028628789489</v>
       </c>
       <c r="N6" t="n">
-        <v>972.6922149510356</v>
+        <v>1166.885386873581</v>
       </c>
       <c r="O6" t="n">
-        <v>1219.201810701763</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1397.7144277183</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1467.126188298631</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1423.196087885614</v>
+        <v>1734.238298972665</v>
       </c>
       <c r="S6" t="n">
-        <v>1355.379271720793</v>
+        <v>1734.238298972665</v>
       </c>
       <c r="T6" t="n">
-        <v>1159.893723963067</v>
+        <v>1734.238298972665</v>
       </c>
       <c r="U6" t="n">
-        <v>1159.893723963067</v>
+        <v>1734.238298972665</v>
       </c>
       <c r="V6" t="n">
-        <v>924.7416157313246</v>
+        <v>1499.086190740922</v>
       </c>
       <c r="W6" t="n">
-        <v>924.7416157313246</v>
+        <v>1255.44487782108</v>
       </c>
       <c r="X6" t="n">
-        <v>716.8901155257918</v>
+        <v>1047.593377615547</v>
       </c>
       <c r="Y6" t="n">
-        <v>509.1298167608379</v>
+        <v>839.8330788505932</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.14246676219935</v>
+        <v>230.6430656672517</v>
       </c>
       <c r="C7" t="n">
-        <v>35.14246676219935</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="D7" t="n">
-        <v>35.14246676219935</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="E7" t="n">
-        <v>35.14246676219935</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F7" t="n">
-        <v>35.14246676219935</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G7" t="n">
-        <v>35.14246676219935</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H7" t="n">
-        <v>35.14246676219935</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I7" t="n">
-        <v>35.14246676219935</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J7" t="n">
-        <v>35.14246676219935</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>66.12938747686074</v>
+        <v>92.71685897981526</v>
       </c>
       <c r="L7" t="n">
-        <v>135.6877752704301</v>
+        <v>185.7706748018942</v>
       </c>
       <c r="M7" t="n">
-        <v>212.2856254073013</v>
+        <v>287.1411594927333</v>
       </c>
       <c r="N7" t="n">
-        <v>294.919675778479</v>
+        <v>393.9588065377462</v>
       </c>
       <c r="O7" t="n">
-        <v>350.9325070872646</v>
+        <v>472.3091036033661</v>
       </c>
       <c r="P7" t="n">
-        <v>379.7991896530725</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="Q7" t="n">
-        <v>379.7991896530725</v>
+        <v>497.4664265514523</v>
       </c>
       <c r="R7" t="n">
-        <v>379.7991896530725</v>
+        <v>497.4664265514523</v>
       </c>
       <c r="S7" t="n">
-        <v>379.7991896530725</v>
+        <v>497.4664265514523</v>
       </c>
       <c r="T7" t="n">
-        <v>379.7991896530725</v>
+        <v>497.4664265514523</v>
       </c>
       <c r="U7" t="n">
-        <v>379.7991896530725</v>
+        <v>497.4664265514523</v>
       </c>
       <c r="V7" t="n">
-        <v>125.1147014471856</v>
+        <v>497.4664265514523</v>
       </c>
       <c r="W7" t="n">
-        <v>125.1147014471856</v>
+        <v>230.6430656672517</v>
       </c>
       <c r="X7" t="n">
-        <v>125.1147014471856</v>
+        <v>230.6430656672517</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.14246676219935</v>
+        <v>230.6430656672517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>613.5501790503051</v>
+        <v>1194.680738819677</v>
       </c>
       <c r="C8" t="n">
-        <v>613.5501790503051</v>
+        <v>1194.680738819677</v>
       </c>
       <c r="D8" t="n">
-        <v>255.2844804435546</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>255.2844804435546</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>248.3389796943512</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809306</v>
@@ -4805,16 +4805,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4835,19 +4835,19 @@
         <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1704.678664719077</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V8" t="n">
-        <v>1373.615777375507</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="W8" t="n">
-        <v>1373.615777375507</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="X8" t="n">
-        <v>1000.150019114427</v>
+        <v>1584.820070795489</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000.150019114427</v>
+        <v>1194.680738819677</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>630.1971149768078</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>630.1971149768078</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>481.2627053155565</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>322.025250310101</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1763.299968773975</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1763.299968773975</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1763.299968773975</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1535.198378907239</v>
+        <v>1577.529912389473</v>
       </c>
       <c r="V9" t="n">
-        <v>1300.046270675496</v>
+        <v>1342.37780415773</v>
       </c>
       <c r="W9" t="n">
-        <v>1045.808913947295</v>
+        <v>1088.140447429529</v>
       </c>
       <c r="X9" t="n">
-        <v>837.9574137417617</v>
+        <v>880.2889472239958</v>
       </c>
       <c r="Y9" t="n">
-        <v>630.1971149768078</v>
+        <v>672.5286484590418</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>347.3497871391163</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>347.3497871391163</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>347.3497871391163</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
         <v>43.36919653809306</v>
@@ -4963,7 +4963,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4990,22 +4990,22 @@
         <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>273.8625692440756</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2309.799418964617</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1940.836902024206</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1582.571203417455</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1196.782950819211</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>785.7970460296035</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>371.2384111549762</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389535</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389535</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251935</v>
+        <v>310.5376544656533</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128753</v>
+        <v>708.4156099402685</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.45766301865</v>
+        <v>1238.920158339959</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957687</v>
+        <v>1860.878123161957</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2497.51382647064</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333932</v>
+        <v>3085.335606994453</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>3552.526896075034</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>3855.195350919246</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>3945.846075194768</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>3917.222241995296</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>3713.493720769365</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>3460.004349265631</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3460.004349265631</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3460.004349265631</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>3086.538591004551</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2696.399259028739</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.6241165038822</v>
+        <v>941.553350645143</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1710872227552</v>
+        <v>767.1003213640161</v>
       </c>
       <c r="D12" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1659117027648</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9284566973093</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3938987241943</v>
       </c>
       <c r="G12" t="n">
-        <v>177.6844143428629</v>
+        <v>176.3057139683834</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608053</v>
+        <v>88.45892371273985</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389535</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608053</v>
+        <v>198.0507963380529</v>
       </c>
       <c r="K12" t="n">
-        <v>197.784186863702</v>
+        <v>479.8243885189535</v>
       </c>
       <c r="L12" t="n">
-        <v>688.5165197074533</v>
+        <v>905.0262973823806</v>
       </c>
       <c r="M12" t="n">
-        <v>1280.534873959581</v>
+        <v>986.0283535715383</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.630837358917</v>
+        <v>1529.629445511239</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2004.698448343761</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2366.650139696706</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2558.686063524931</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.77562977024</v>
+        <v>2558.686063524931</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.354610211409</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.819711920991</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.769951595642</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.617843363899</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.380486635698</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.528986430165</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.768687665211</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.8816814720478</v>
+        <v>783.167304553855</v>
       </c>
       <c r="C13" t="n">
-        <v>704.9454985441409</v>
+        <v>614.2311216259482</v>
       </c>
       <c r="D13" t="n">
-        <v>554.8288591318052</v>
+        <v>464.1144822136124</v>
       </c>
       <c r="E13" t="n">
-        <v>406.9157655494121</v>
+        <v>316.2013886312193</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0258180515017</v>
+        <v>169.311441133309</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608053</v>
+        <v>169.311441133309</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608053</v>
+        <v>169.311441133309</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389535</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156344</v>
+        <v>140.0102100570375</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>370.2420869801094</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693323</v>
+        <v>720.3860579836913</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1099.952904694121</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1475.929116585247</v>
       </c>
       <c r="O13" t="n">
-        <v>2020.132206020528</v>
+        <v>1807.187706265503</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2067.115974197809</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2163.641753620771</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2163.641753620771</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410168</v>
+        <v>1975.97250458292</v>
       </c>
       <c r="T13" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.69955766849</v>
       </c>
       <c r="U13" t="n">
-        <v>2048.413934586682</v>
+        <v>1957.69955766849</v>
       </c>
       <c r="V13" t="n">
-        <v>1793.729446380795</v>
+        <v>1703.015069462603</v>
       </c>
       <c r="W13" t="n">
-        <v>1504.312276343835</v>
+        <v>1413.597899425642</v>
       </c>
       <c r="X13" t="n">
-        <v>1276.322725445817</v>
+        <v>1185.608348527625</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.530146302287</v>
+        <v>964.8157693840948</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.583792693554</v>
+        <v>989.3306680894888</v>
       </c>
       <c r="C16" t="n">
-        <v>666.6476097656471</v>
+        <v>820.3944851615802</v>
       </c>
       <c r="D16" t="n">
-        <v>516.5309703533113</v>
+        <v>670.2778457492444</v>
       </c>
       <c r="E16" t="n">
-        <v>368.6178767709182</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>221.7279292730078</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565341</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667324</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523794</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5704,19 +5704,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,22 +5832,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1984.597634722449</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1984.597634722449</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.913146516562</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.495976479601</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6719,13 +6719,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311365</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2404.986360578632</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2404.986360578632</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2185.384895601574</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1352.208010702924</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>1124.218459804906</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613763</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6929,43 +6929,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7315,13 +7315,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474262</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474262</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046873</v>
+        <v>15.8695646236077</v>
       </c>
       <c r="D2" t="n">
-        <v>289.9023166414314</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871004</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.96615481219229</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.2586868761434</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.29152613729354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7976332114348</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>142.7263313093538</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>78.67257280280118</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>200.4838020820756</v>
       </c>
       <c r="U13" t="n">
-        <v>127.505224585932</v>
+        <v>286.1993922939259</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>108.2431272522988</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>38.89198472948324</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>109.0289520621392</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>30.48882721876572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>20.4848091482867</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>26.93934589766886</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>7.065188669821225</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.81829093850975</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>285.9032928766021</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>257.6444250803515</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>38.13892827624255</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>139.469330230033</v>
+        <v>6.726664722474368</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1070105.520563425</v>
+        <v>1160965.335467733</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1159067.273709502</v>
+        <v>1068207.458805195</v>
       </c>
     </row>
     <row r="6">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244059.153812711</v>
+        <v>264781.5677382548</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>260870.92578236</v>
+        <v>240148.5118568162</v>
       </c>
       <c r="F2" t="n">
         <v>262322.6448992519</v>
@@ -26335,7 +26335,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
         <v>262322.644899252</v>
@@ -26344,10 +26344,10 @@
         <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="N2" t="n">
         <v>262322.6448992519</v>
-      </c>
-      <c r="N2" t="n">
-        <v>262322.644899252</v>
       </c>
       <c r="O2" t="n">
         <v>262322.644899252</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208459</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>278678.7256615246</v>
+        <v>392510.2442861774</v>
       </c>
       <c r="D3" t="n">
-        <v>107755.330640534</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>589710.8045858953</v>
+        <v>423985.6110435317</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.2631150414</v>
+        <v>173247.6706769758</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>64793.74450285007</v>
+        <v>91259.95686487772</v>
       </c>
       <c r="L3" t="n">
-        <v>26026.39082138391</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>154015.6312544153</v>
+        <v>110732.9406547224</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704785</v>
+        <v>45616.86246457536</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238531.1995057565</v>
+        <v>274924.0351826674</v>
       </c>
       <c r="C4" t="n">
-        <v>204455.3553457815</v>
+        <v>174202.9900888976</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16040.05135066662</v>
+        <v>15950.0887741354</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26439,22 +26439,22 @@
         <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
+        <v>16046.58397189199</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16046.58397189202</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="O4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189199</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.583971892</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16046.58397189199</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>77016.9752256994</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>100142.1285138384</v>
+        <v>86492.42130943743</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642814.748625505</v>
+        <v>-658500.9935112383</v>
       </c>
       <c r="C6" t="n">
-        <v>-293312.4810271135</v>
+        <v>-385073.7410250552</v>
       </c>
       <c r="D6" t="n">
-        <v>-100318.827379412</v>
+        <v>7436.503261122212</v>
       </c>
       <c r="E6" t="n">
-        <v>-445022.0586680403</v>
+        <v>-286484.9174498966</v>
       </c>
       <c r="F6" t="n">
-        <v>133701.2679884114</v>
+        <v>-28128.87749895862</v>
       </c>
       <c r="G6" t="n">
-        <v>145153.5311034528</v>
+        <v>145118.7931780171</v>
       </c>
       <c r="H6" t="n">
-        <v>145153.5311034529</v>
+        <v>145118.7931780174</v>
       </c>
       <c r="I6" t="n">
-        <v>145153.5311034528</v>
+        <v>145118.7931780171</v>
       </c>
       <c r="J6" t="n">
-        <v>96088.58637490828</v>
+        <v>96053.84844947248</v>
       </c>
       <c r="K6" t="n">
-        <v>80359.78660060281</v>
+        <v>53858.83631313947</v>
       </c>
       <c r="L6" t="n">
-        <v>119127.1402820689</v>
+        <v>145118.7931780171</v>
       </c>
       <c r="M6" t="n">
-        <v>-8862.10015096252</v>
+        <v>34385.85252329473</v>
       </c>
       <c r="N6" t="n">
-        <v>142076.5137477481</v>
+        <v>99501.93071344183</v>
       </c>
       <c r="O6" t="n">
-        <v>145153.5311034529</v>
+        <v>145118.7931780172</v>
       </c>
       <c r="P6" t="n">
-        <v>145153.5311034529</v>
+        <v>145118.7931780172</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>765.1880957077015</v>
+        <v>853.7106645376842</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1216.310136076924</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>439.2808345274919</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>986.4615187986919</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>216.7181547947964</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="D3" t="n">
-        <v>88.52256882998267</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.3303841787015</v>
+        <v>362.5994715392403</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>151.6653642647495</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>251.7552473611716</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>102.8341221986713</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>618.0303335998433</v>
+        <v>444.3465620725286</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364188</v>
+        <v>186.2467693009564</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>251.7552473611719</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>102.8341221986713</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998433</v>
+        <v>444.3465620725286</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>186.2467693009567</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>251.7552473611716</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>102.8341221986713</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998433</v>
+        <v>444.3465620725286</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>186.2467693009564</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>161.8777399810797</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>334.6095157452442</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>212.2895064754613</v>
       </c>
     </row>
     <row r="3">
@@ -27458,28 +27458,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>130.2674285982323</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>31.75248793873854</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409146</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265831</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846313</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625680939</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377063</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27549,19 +27549,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482795</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825411</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402843</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709376</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159719</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625545</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.9713545372084</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>91.88327023464242</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>209.6300771461999</v>
+        <v>115.0481014222859</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0995622639908</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>289.2253094415329</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6976408818771</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.33974436151195</v>
+        <v>94.50081326185513</v>
       </c>
       <c r="I6" t="n">
-        <v>42.85514838391078</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>73.97309305045604</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8331007466766</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.49008337027604</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6111319727563</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>149.9590748418308</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>113.9547008190439</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>29.44021127023557</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.96159917758293</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.2504352891319</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>199.969621324322</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0498778711894</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2437649536344</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.36787106123245</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>129.5121410139584</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15.56176541951504</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>208.9506495189313</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.77105310329745</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27986,7 +27986,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>39.01041037349503</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.05052777716404</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
@@ -28062,10 +28062,10 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>58.04661883679395</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29035,70 +29035,70 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043125</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528641</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672895</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470027</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244297</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619227</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924588</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31124,43 +31124,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590854</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628874</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550082</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288822</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390168</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445827</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620023</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.925421811142</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784866</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181398</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.076133048071159</v>
+        <v>3.432002671508276</v>
       </c>
       <c r="H5" t="n">
-        <v>31.50344757855877</v>
+        <v>35.14799735958414</v>
       </c>
       <c r="I5" t="n">
-        <v>118.5926193357635</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>261.0829472887298</v>
+        <v>291.2869367409258</v>
       </c>
       <c r="K5" t="n">
-        <v>391.295659213582</v>
+        <v>436.5636098258712</v>
       </c>
       <c r="L5" t="n">
-        <v>485.4368659834899</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>540.1420470771253</v>
+        <v>602.629639093478</v>
       </c>
       <c r="N5" t="n">
-        <v>548.8821100999576</v>
+        <v>612.3808166839009</v>
       </c>
       <c r="O5" t="n">
-        <v>518.2938121031999</v>
+        <v>578.2538401190905</v>
       </c>
       <c r="P5" t="n">
-        <v>442.3517774789431</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>332.1877626948946</v>
+        <v>370.6176784928396</v>
       </c>
       <c r="R5" t="n">
-        <v>193.2311425809001</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>70.09738183292161</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>13.46577241793151</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2460906438456927</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.645876281333547</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>15.89569987498452</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>56.66723161608922</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>155.4992148079208</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>265.7729256572684</v>
+        <v>296.5194861913578</v>
       </c>
       <c r="L6" t="n">
-        <v>357.3644969623563</v>
+        <v>398.7070419616799</v>
       </c>
       <c r="M6" t="n">
-        <v>417.0275121606973</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>428.0649895034999</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>391.595836111846</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>314.2901821785086</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0946635611033</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>102.1887045550776</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S6" t="n">
-        <v>30.57143005020862</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>6.634036414673371</v>
+        <v>7.401510384057845</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1082813342982597</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.379847385702412</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>12.26809766560873</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I7" t="n">
-        <v>41.49577410821438</v>
+        <v>46.29630948017476</v>
       </c>
       <c r="J7" t="n">
-        <v>97.55521016916055</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>160.3131780843348</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>205.1456740525205</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>216.2973497424245</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>211.1542822138975</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>195.0351559354647</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>166.8862692671353</v>
+        <v>186.1928964099893</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.5434024518629</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>62.04295608803754</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>24.04697671265021</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>5.895711557092124</v>
+        <v>6.577770693978876</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0752644028564953</v>
+        <v>0.08397154077419854</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>4.889688989253964</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>50.07652736119717</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>188.5097347582136</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>415.006240851694</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>621.9867757668144</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>771.6295951716955</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293309</v>
+        <v>858.5866017343407</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>872.4794305750586</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>823.8575856881645</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>703.1433887659571</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>528.0314018382993</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>307.1519259712246</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>111.4237878426248</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>21.40461355045924</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3911751191403171</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.616214254957913</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>25.26712188340932</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>90.07579781324395</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>247.1748739738966</v>
       </c>
       <c r="K12" t="n">
-        <v>243.874331537613</v>
+        <v>422.4612290560767</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>568.0512574196996</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>223.9542926989454</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>680.4337241436373</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>622.4639240732539</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>499.5821764577089</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>333.9574547205926</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>48.59503232345067</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>10.54517938730843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1721193588788101</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.193346147023962</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>19.50084119808578</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>65.95990049413881</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>155.0695725945941</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>254.8269432633293</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>326.0907535311807</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>343.8169783012197</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>335.6417790259489</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>310.0195081266234</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>265.2752467273343</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>183.6628305476156</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>98.6208185743683</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>38.22404148949939</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>9.371569900920562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1196370625649435</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868222</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788355</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973023</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504118</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916013</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065995</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606293</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755149</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855714</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765007</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646089</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061166</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520837</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400637</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>80.03704276204348</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>171.2058081686015</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>249.6704510135027</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>309.7958138498526</v>
+        <v>372.2834058662053</v>
       </c>
       <c r="N5" t="n">
-        <v>319.4690465033667</v>
+        <v>382.96775308731</v>
       </c>
       <c r="O5" t="n">
-        <v>288.1956006815132</v>
+        <v>348.1556286974037</v>
       </c>
       <c r="P5" t="n">
-        <v>211.1187817236736</v>
+        <v>262.2932784109603</v>
       </c>
       <c r="Q5" t="n">
-        <v>109.8820728204451</v>
+        <v>148.3119886183901</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>28.66158814125407</v>
+        <v>46.65087734093953</v>
       </c>
       <c r="K6" t="n">
-        <v>127.9314866829094</v>
+        <v>158.6780472169988</v>
       </c>
       <c r="L6" t="n">
-        <v>218.8101171824821</v>
+        <v>260.1526621818057</v>
       </c>
       <c r="M6" t="n">
-        <v>274.8934782386789</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>296.7232774201666</v>
+        <v>346.2449737319511</v>
       </c>
       <c r="O6" t="n">
-        <v>248.9995916674016</v>
+        <v>294.3022689440061</v>
       </c>
       <c r="P6" t="n">
-        <v>180.3157747641783</v>
+        <v>216.675167233233</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.11288947508174</v>
+        <v>94.41818044892909</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>31.29991991379939</v>
+        <v>49.84612367850727</v>
       </c>
       <c r="L7" t="n">
-        <v>70.26099777128221</v>
+        <v>93.99375335563531</v>
       </c>
       <c r="M7" t="n">
-        <v>77.37156579481942</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>83.4687377486643</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>56.57861748362188</v>
+        <v>79.14171420769685</v>
       </c>
       <c r="P7" t="n">
-        <v>29.15826521798772</v>
+        <v>48.46489236084165</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>233.9603363250077</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>401.8969247218338</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>535.8631802017082</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020582</v>
+        <v>628.240368507068</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>643.0663669784676</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>593.7593742664777</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>471.9103930106875</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>305.7257119638498</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>91.56638815709243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>120.3372473072299</v>
       </c>
       <c r="K12" t="n">
-        <v>106.032892563254</v>
+        <v>284.6197900817177</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>429.4968776398254</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>81.82025877692705</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>549.092012060304</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>479.8676796288095</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>365.6077690433787</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>193.9756806345711</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>61.71039247792132</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>232.5574514374465</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>353.6807787914969</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>383.4008552630603</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>379.7739514051775</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>334.6046360406631</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>262.5538059922278</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>97.5007872959212</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
